--- a/biology/Zoologie/Acanthonemus/Acanthonemus.xlsx
+++ b/biology/Zoologie/Acanthonemus/Acanthonemus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthonemus est un genre fossile de poissons à nageoires rayonnées de l'ordre des Perciformes et de la famille des Acanthonemidae. 
 </t>
@@ -511,16 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Acanthonemus est créé en 1833 par le paléontologue suisse et américain Agassiz[1],[2].
-Famille
-Le genre Acanthonemus est rapporté en 2014 par A. F. Bannikov à la famille également fossile des Acanthonemidae au sein de l'ordre des Perciformes[3],[4],[5].
-Espèces
-Selon Paleobiology Database en 2023, le nombre d'espèces référencées est de trois[2] :
-† Acanthonemus bertrandi Agassiz, 1834
-† Acanthonemus filamentosus Agassiz, 1834[6]
-† Acanthonemus subaureus Blainville, 1818[7],[8]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acanthonemus est créé en 1833 par le paléontologue suisse et américain Agassiz,.
+</t>
         </is>
       </c>
     </row>
@@ -545,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Découverte et datation</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leurs fossiles parfaitement préservés ont été découverts sur le célèbre site paléontologique (Lagerstätte) du Monte Bolca, en Vénétie (Italie). Les espèces ont vécu dans les lagons tropicaux de l'océan Téthys, précurseur de la Méditerranée, au cours de l'Éocène inférieur (Yprésien), il y a environ entre 50,5 et 48,5 Ma (millions d'années)[10],[11]. 
-Leurs fossiles ont été décrits dès le début du XIXe siècle par Henri-Marie Ducrotay de Blainville en 1818[7] et Louis Agassiz[6] en 1834.
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acanthonemus est rapporté en 2014 par A. F. Bannikov à la famille également fossile des Acanthonemidae au sein de l'ordre des Perciformes.
 </t>
         </is>
       </c>
@@ -577,10 +590,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre d'espèces référencées est de trois :
+† Acanthonemus bertrandi Agassiz, 1834
+† Acanthonemus filamentosus Agassiz, 1834
+† Acanthonemus subaureus Blainville, 1818,</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acanthonemus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthonemus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Découverte et datation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leurs fossiles parfaitement préservés ont été découverts sur le célèbre site paléontologique (Lagerstätte) du Monte Bolca, en Vénétie (Italie). Les espèces ont vécu dans les lagons tropicaux de l'océan Téthys, précurseur de la Méditerranée, au cours de l'Éocène inférieur (Yprésien), il y a environ entre 50,5 et 48,5 Ma (millions d'années),. 
+Leurs fossiles ont été décrits dès le début du XIXe siècle par Henri-Marie Ducrotay de Blainville en 1818 et Louis Agassiz en 1834.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acanthonemus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthonemus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
